--- a/plan de test.xlsx
+++ b/plan de test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projet-orinoco\orinoco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BC430B-E8F0-4ED6-949A-CF70B0E8BBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA70C65A-98A7-4EA5-B82B-C888ACB6878B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D112A754-ECC2-491E-A9E5-34250FA04644}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -48,40 +48,190 @@
     <t xml:space="preserve">Plan de tests </t>
   </si>
   <si>
-    <t>listProduits.js</t>
-  </si>
-  <si>
-    <t>lignes 1-79</t>
-  </si>
-  <si>
     <t>getPelucheInf</t>
   </si>
   <si>
     <t xml:space="preserve">la function doit afficher la liste de tous les produits dans la page d'accueil, avec leur nom,description, prix, image </t>
   </si>
   <si>
-    <t xml:space="preserve">refraicher la page d'accueil et verifier si la liste s'affiche correctement. </t>
-  </si>
-  <si>
     <t>la liste n'affiche pas</t>
   </si>
   <si>
-    <t>lignes 84-100</t>
-  </si>
-  <si>
-    <t>menuPillier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quand la resolution de l'ecran  change à moins de 800px, le bar de menu doit changer en 3 lignes qui s'affichent le menu complet dés que être en click. </t>
-  </si>
-  <si>
-    <t>diminuer l'ecran et verifier si le changement de layout  de menu marche bien.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">le bar de menu ne change pas le rangement  quand l'ecran est moins de 800px. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">produitPersonalisation </t>
+    <t>listProduiNew.js</t>
+  </si>
+  <si>
+    <t>lignes 1-65</t>
+  </si>
+  <si>
+    <t>ligne1</t>
+  </si>
+  <si>
+    <t>produitOption</t>
+  </si>
+  <si>
+    <t>refraicher la page d'accueil et verifier si la liste s'affiche correctement. Utiliser console.log pour verifier si r tous les produits sont presentes.</t>
+  </si>
+  <si>
+    <t>Utiliser console.log (produitOption) pour verifier si cette produit est bien presente.</t>
+  </si>
+  <si>
+    <t>la produit choisie dans la page d'accueil ne presente pas ici.</t>
+  </si>
+  <si>
+    <t>ligne4-19</t>
+  </si>
+  <si>
+    <t>produitOptionAppend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la produit choisie dans la page d'accueil se presente comme produitOption dans le deuxiem page  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">la produitOption s'affiche sur la page avec tous les information neccessaire: titre, description, price , color, quantity </t>
+  </si>
+  <si>
+    <t>refraicher la page  et verifier si la produit  s'affiche correctement. Utiliser console.log pour verifier si r tous les produits sont presentes.</t>
+  </si>
+  <si>
+    <t>la produitOption ne s'affiche pas correctement.</t>
+  </si>
+  <si>
+    <t>ligne21-38</t>
+  </si>
+  <si>
+    <t>produitPersonaliser</t>
+  </si>
+  <si>
+    <t>creér l'objet produitPersonaliser qui change la quantity et couleur avec le contenu de choix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utiliser console.log (produitPersonaliser) pour verifier si cette produit est bien presente </t>
+  </si>
+  <si>
+    <t>la produitPersonaliser ne montre pas correctement.</t>
+  </si>
+  <si>
+    <t>ligne42-61</t>
+  </si>
+  <si>
+    <t>misePanier</t>
+  </si>
+  <si>
+    <t>en cliquant le button"Ajouter au panier" les produits personalisées sont mises dans localstockage sur propriété "monPanier"</t>
+  </si>
+  <si>
+    <t>cliquer le button, et verifier le localstockage dans le console si la produit a été bien mise dedans.</t>
+  </si>
+  <si>
+    <t>la produits n'est pas mise dans le localstockage.</t>
+  </si>
+  <si>
+    <t>produitPersonalisation.js</t>
+  </si>
+  <si>
+    <t>panier-formulaire.js</t>
+  </si>
+  <si>
+    <t>ligne5-30</t>
+  </si>
+  <si>
+    <t>appendElementsPanierVide</t>
+  </si>
+  <si>
+    <t>supprimer tous les produits dans mon panier et verifier si le page s'affiche correctement.</t>
+  </si>
+  <si>
+    <t>quand il n'y a pas de produits dans mon panier, le page doit s'affiche en montrant que il n'y a pas de produit pour l'instant dans le panier et on peut retourner au page d'accueil pour continuer le shopping.</t>
+  </si>
+  <si>
+    <t>le page ne s'affiche pas correctement</t>
+  </si>
+  <si>
+    <t>appendElementsPanierNonVide</t>
+  </si>
+  <si>
+    <t>ligne35-113</t>
+  </si>
+  <si>
+    <t>tous les produits choisiées et mises dans mon panier se presentent dans ce page avec les propriétés titre, description, prix, quantity, color, et le button pour supprimmer, et la quantity se peut change toujours dans ce page, et le prix total change en mème temps avec la quantity</t>
+  </si>
+  <si>
+    <t>retourner aux pages précédants pour ajouter des produits dan mon panier , et arriver à ce page pour verifier si tous les produits dans mon panier s'affichent correctement sur ce page , changer la quantity et verifier si le prix total change de façcon synchronise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">les produits dans mon panier ne s'affichent pas correctement. Le button supprimer ne marche pas correctement. Le prix total ne change pas avec le changement de la quantité. </t>
+  </si>
+  <si>
+    <t>validEmail</t>
+  </si>
+  <si>
+    <t>validAdresse</t>
+  </si>
+  <si>
+    <t>validCodePostale</t>
+  </si>
+  <si>
+    <t>ligne133-150</t>
+  </si>
+  <si>
+    <t>ligne152-171</t>
+  </si>
+  <si>
+    <t>ligne173-192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">essayer avec le format correct et incorrect pour verifier si l'indicaition s'affiche correctement </t>
+  </si>
+  <si>
+    <t>l'indication s'affiche pas correctement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l'addresse l doit s'ecrire avec le format correct(au moins deux lettre) , sino s'affiche l'indication  de l'alert. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> email doit s'ecrire avec le format correct (avec @, et .), sino s'affiche l'indication  de l'alert. </t>
+  </si>
+  <si>
+    <t>la code postale doit contenir 5 chiffres ,sino s'affiche l'indication de l'alert</t>
+  </si>
+  <si>
+    <t>commandSend</t>
+  </si>
+  <si>
+    <t>ligne194-241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en cliquant le button"passer en commande" les produits de mon panier  sont mises dans localstockage sur propriété "monCommande", et le purchase order est composé et envoyé à API qui renvoie les information de ce  purchase order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cliquer le button"passer en commande", et verifier le localstockage dans le console si la produit a été bien mise dedans sous "mon commonde", et verifier dan network si le purchase order a été bien envoyé au API et recoire les informations de API en même temp. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">le purchase order ne peut pas s'envoyer a l'API et recoire les information de API </t>
+  </si>
+  <si>
+    <t>commande.js</t>
+  </si>
+  <si>
+    <t>ligne 4-6</t>
+  </si>
+  <si>
+    <t>le page indique que il n'a pas de commande en cours quand est  monCommande est vide</t>
+  </si>
+  <si>
+    <t>supprimer monCommande dans console et verifier si le page s'affiche correctement</t>
+  </si>
+  <si>
+    <t>ligne7-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">les informations de monCommande s'affichent sur ce page avec l'identifiant de la commande et sa  prix total </t>
+  </si>
+  <si>
+    <t>verifier le prix total si il est correct.</t>
+  </si>
+  <si>
+    <t>le page ne s'affiche pas correctement les informations de cette commande.</t>
   </si>
 </sst>
 </file>
@@ -163,11 +313,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -182,6 +329,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,405 +653,529 @@
   <dimension ref="A1:AL39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="58.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="47.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="27.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="46.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:38" s="3" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:38" s="2" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
     </row>
     <row r="3" spans="1:38" ht="47.25" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:38" ht="70.5" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" ht="70.5" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:38" ht="45" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" ht="45" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:38" ht="24.95" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:38" ht="24.95" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:38" ht="24.95" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:38" ht="24.95" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:38" ht="24.95" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:38" ht="24.95" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:38" ht="24.95" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:38" ht="24.95" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:38" ht="24.95" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:38" ht="24.95" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="46.5" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="56.25" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="67.5" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="97.5" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="42" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="45.75" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="42" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="93" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="41.25" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="36.75" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:38" ht="24.95" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/plan de test.xlsx
+++ b/plan de test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projet-orinoco\orinoco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA70C65A-98A7-4EA5-B82B-C888ACB6878B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010F03F7-ABE3-4A54-9EE2-7BBE4A66EBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D112A754-ECC2-491E-A9E5-34250FA04644}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -51,187 +51,226 @@
     <t>getPelucheInf</t>
   </si>
   <si>
-    <t xml:space="preserve">la function doit afficher la liste de tous les produits dans la page d'accueil, avec leur nom,description, prix, image </t>
-  </si>
-  <si>
-    <t>la liste n'affiche pas</t>
-  </si>
-  <si>
-    <t>listProduiNew.js</t>
-  </si>
-  <si>
-    <t>lignes 1-65</t>
-  </si>
-  <si>
-    <t>ligne1</t>
-  </si>
-  <si>
-    <t>produitOption</t>
-  </si>
-  <si>
-    <t>refraicher la page d'accueil et verifier si la liste s'affiche correctement. Utiliser console.log pour verifier si r tous les produits sont presentes.</t>
-  </si>
-  <si>
-    <t>Utiliser console.log (produitOption) pour verifier si cette produit est bien presente.</t>
-  </si>
-  <si>
-    <t>la produit choisie dans la page d'accueil ne presente pas ici.</t>
-  </si>
-  <si>
-    <t>ligne4-19</t>
-  </si>
-  <si>
     <t>produitOptionAppend</t>
   </si>
   <si>
-    <t xml:space="preserve">la produit choisie dans la page d'accueil se presente comme produitOption dans le deuxiem page  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">la produitOption s'affiche sur la page avec tous les information neccessaire: titre, description, price , color, quantity </t>
-  </si>
-  <si>
-    <t>refraicher la page  et verifier si la produit  s'affiche correctement. Utiliser console.log pour verifier si r tous les produits sont presentes.</t>
-  </si>
-  <si>
-    <t>la produitOption ne s'affiche pas correctement.</t>
-  </si>
-  <si>
-    <t>ligne21-38</t>
-  </si>
-  <si>
     <t>produitPersonaliser</t>
   </si>
   <si>
-    <t>creér l'objet produitPersonaliser qui change la quantity et couleur avec le contenu de choix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">utiliser console.log (produitPersonaliser) pour verifier si cette produit est bien presente </t>
-  </si>
-  <si>
-    <t>la produitPersonaliser ne montre pas correctement.</t>
-  </si>
-  <si>
-    <t>ligne42-61</t>
-  </si>
-  <si>
     <t>misePanier</t>
   </si>
   <si>
-    <t>en cliquant le button"Ajouter au panier" les produits personalisées sont mises dans localstockage sur propriété "monPanier"</t>
-  </si>
-  <si>
-    <t>cliquer le button, et verifier le localstockage dans le console si la produit a été bien mise dedans.</t>
-  </si>
-  <si>
-    <t>la produits n'est pas mise dans le localstockage.</t>
-  </si>
-  <si>
     <t>produitPersonalisation.js</t>
   </si>
   <si>
     <t>panier-formulaire.js</t>
   </si>
   <si>
-    <t>ligne5-30</t>
-  </si>
-  <si>
     <t>appendElementsPanierVide</t>
   </si>
   <si>
-    <t>supprimer tous les produits dans mon panier et verifier si le page s'affiche correctement.</t>
-  </si>
-  <si>
-    <t>quand il n'y a pas de produits dans mon panier, le page doit s'affiche en montrant que il n'y a pas de produit pour l'instant dans le panier et on peut retourner au page d'accueil pour continuer le shopping.</t>
-  </si>
-  <si>
-    <t>le page ne s'affiche pas correctement</t>
-  </si>
-  <si>
     <t>appendElementsPanierNonVide</t>
   </si>
   <si>
-    <t>ligne35-113</t>
-  </si>
-  <si>
-    <t>tous les produits choisiées et mises dans mon panier se presentent dans ce page avec les propriétés titre, description, prix, quantity, color, et le button pour supprimmer, et la quantity se peut change toujours dans ce page, et le prix total change en mème temps avec la quantity</t>
-  </si>
-  <si>
-    <t>retourner aux pages précédants pour ajouter des produits dan mon panier , et arriver à ce page pour verifier si tous les produits dans mon panier s'affichent correctement sur ce page , changer la quantity et verifier si le prix total change de façcon synchronise.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">les produits dans mon panier ne s'affichent pas correctement. Le button supprimer ne marche pas correctement. Le prix total ne change pas avec le changement de la quantité. </t>
+    <t>listPeuluches.js</t>
+  </si>
+  <si>
+    <t>lignes 1-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette  function doit permettre à  afficher  tous les peuluches  dans la page d'accueil, avec leur nom,description, prix, image etc, et  en click la carte de chaque peuluch, cet peuluche doit être réservé dans le localStorage en tant que "optionItem" </t>
+  </si>
+  <si>
+    <t>la liste n'affiche pas, la peuluche choisie ne se met pas dans le localStorage.</t>
+  </si>
+  <si>
+    <t>rafraicher la page d'accueil et verifier si la liste s'affiche correctement. Utiliser console.log pour verifier si  tous les produits sont presentes.Clicker une des cartes et verifier dans le localStorage si cette peuluche est  dedans en tant que "optionItem"</t>
+  </si>
+  <si>
+    <t>ligne1-18</t>
+  </si>
+  <si>
+    <t>Utiliser console.log (produitOption) pour verifier si la  produit  presente sur cet page correspond avec la produit qui a été choisie dans la page d'accueil.</t>
+  </si>
+  <si>
+    <t>la produit se presente dans ce page n'est pas la même produit qui est cliqué dans la page d'accueil</t>
+  </si>
+  <si>
+    <t>ligne 20-37</t>
+  </si>
+  <si>
+    <t>ligne 39-56</t>
+  </si>
+  <si>
+    <t>personaliser la produit choisie en chosissant sa couleur et la quantity.</t>
+  </si>
+  <si>
+    <t>en clic sur le button , cet function doit mettre la produit personalisée dans le localStorage "lePanier"</t>
+  </si>
+  <si>
+    <t>changer la choix de couleur et quantity,cliquer le button "Ajouter au panier", verifier dans le localStorage si la produit personalisée est bien dans "lePanier", et la couleur &amp; la quantity sont bien identiques avec la choix .cliquer le button sans choisir la couleur ou la quantity, verify si la page saute au page suivant.</t>
+  </si>
+  <si>
+    <t>le page peut sauter au page suivant sans compléter la choix de la couleur et la quantity.  La produit personalisée ne peut pas se mettre dans "lePanier" de localStorage</t>
+  </si>
+  <si>
+    <t>ligne5-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quand le panier est vide, cette function permet d'afficher les informations pour rappler les utilisateur de commencer le shopping en retournant au page d'accueil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">supprimer tous les produits dans le panier en ustilisant localStorage.clear() pour verifier si les informations s'affichent correctement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quand "lePanier" dans localStorage est vide , cet page n'affiche pas correctement. </t>
+  </si>
+  <si>
+    <t>ligne10-51</t>
+  </si>
+  <si>
+    <t>quand le panier n'est pas vide, les produits dans le panier s'affichent sur cet page avec les informations concernantes(nom, description, image, color , quantity) , le prix total, button supprimer qui permet de supprimer la produit choisiée.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mettre des produits personalisées dans le panier dans le  deuxième page et arriver à cet page , verifier si les produits dans le panier se presentent correctement dans cet page, verifier le contenu dans "lePanier" of localStorage, le prixTotal , cliquer le button supprimer pour verifier si il marche bien. </t>
+  </si>
+  <si>
+    <t>commandeSend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la produit choisie dans le page d'accueil s'affiche avec tous les informations concernantes (nom, description, prix, color,image) dans le deuxiem page  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cet page ne s'affiche pas correctemet avec les produits personalisées et mises au panier, le prix total n'est pas correct.Le button supprimer ne marche pas ou ne marche pas  correctement. </t>
   </si>
   <si>
     <t>validEmail</t>
   </si>
   <si>
+    <t>validCity</t>
+  </si>
+  <si>
+    <t>ligne 53-74</t>
+  </si>
+  <si>
+    <t>ligne76-93</t>
+  </si>
+  <si>
+    <t>input l'email avec le format correct et incorrect respectivement  pour verifier si il se valider ou pas et si l'indication se manifeste correctement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce champ peut se valider seulement quand le format de email est correct, sino l'indication de fault se manifeste. </t>
+  </si>
+  <si>
     <t>validAdresse</t>
   </si>
   <si>
     <t>validCodePostale</t>
   </si>
   <si>
-    <t>ligne133-150</t>
-  </si>
-  <si>
-    <t>ligne152-171</t>
-  </si>
-  <si>
-    <t>ligne173-192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">essayer avec le format correct et incorrect pour verifier si l'indicaition s'affiche correctement </t>
-  </si>
-  <si>
-    <t>l'indication s'affiche pas correctement</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> l'addresse l doit s'ecrire avec le format correct(au moins deux lettre) , sino s'affiche l'indication  de l'alert. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> email doit s'ecrire avec le format correct (avec @, et .), sino s'affiche l'indication  de l'alert. </t>
-  </si>
-  <si>
-    <t>la code postale doit contenir 5 chiffres ,sino s'affiche l'indication de l'alert</t>
-  </si>
-  <si>
-    <t>commandSend</t>
-  </si>
-  <si>
-    <t>ligne194-241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en cliquant le button"passer en commande" les produits de mon panier  sont mises dans localstockage sur propriété "monCommande", et le purchase order est composé et envoyé à API qui renvoie les information de ce  purchase order </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cliquer le button"passer en commande", et verifier le localstockage dans le console si la produit a été bien mise dedans sous "mon commonde", et verifier dan network si le purchase order a été bien envoyé au API et recoire les informations de API en même temp. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">le purchase order ne peut pas s'envoyer a l'API et recoire les information de API </t>
+    <t>validNom</t>
+  </si>
+  <si>
+    <t>validPrenom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce champ peut se valider seulement quand le format de address est correct(il doit contenir au moins deux lettres), sino l'indication de fault se manifeste. </t>
+  </si>
+  <si>
+    <t>input l'address  avec le format correct et incorrect respectivement  pour verifier si il se valider ou pas et si l'indication se manifeste correctement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce champ peut se valider seulement quand le format de code postale  est correct(il doit contenir cinque chiffres), sino l'indication de fault se manifeste. </t>
+  </si>
+  <si>
+    <t>input la code postale  avec le format correct et incorrect respectivement  pour verifier si il se valider ou pas et si l'indication se manifeste correctement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">même quand le format de  l'address input est incorrect ou ce champ est vide, il peut se valider et none indication de fault se presente.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">même quand le format de  l'email input est incorrect ou ce champ est vide, il peut se valider et none indication de fault se presente.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">même quand le format de  la code postale input est incorrect ou ce champ est vide, il peut se valider et none indication de fault se presente.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce champ peut se valider seulement quand le nom est input , sino l'indication de fault se manifeste. </t>
+  </si>
+  <si>
+    <t>input le nom et enlever le nom  respectivement  pour verifier si il se valider ou pas et si l'indication se manifeste correctement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">même quand  ce champ est vide, il peut se valider ou  none indication de fault se presente.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce champ peut se valider seulement quand le prenom est input , sino l'indication de fault se manifeste. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce champ peut se valider seulement quand la ville  est input , sino l'indication de fault se manifeste. </t>
+  </si>
+  <si>
+    <t>input le prenom et enlever le prenom  respectivement  pour verifier si il se valider ou pas et si l'indication se manifeste correctement</t>
+  </si>
+  <si>
+    <t>input la ville  et enlever la ville  respectivement  pour verifier si il se valider ou pas et si l'indication se manifeste correctement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ligne 95-112</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ligne  114-130</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ligne  132-148</t>
+  </si>
+  <si>
+    <t>ligne150-166</t>
+  </si>
+  <si>
+    <t>ligne 53-227</t>
+  </si>
+  <si>
+    <t>en cliquant le button en bas du formulaire, le formulaire est validé, les produits dans de lePanier de localStorage sont transferréés dans monCommande de localStorage, API doit reussir à recoit les information de la commande et donner l'identifiant de l'order(orderId)</t>
+  </si>
+  <si>
+    <t>cliquer le button en bas, verifier dans le localStorage si les produits dans lePanier sont transferées dans "listProduitCommanded" of "myCommande" , et si le orderId se presente dans "myCommande"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">les produits dans "lePanier" de localStorage ne sont pas transferées dans "monCommande" et  le "orderId" n'est pas obtenue. </t>
   </si>
   <si>
     <t>commande.js</t>
   </si>
   <si>
-    <t>ligne 4-6</t>
-  </si>
-  <si>
-    <t>le page indique que il n'a pas de commande en cours quand est  monCommande est vide</t>
-  </si>
-  <si>
-    <t>supprimer monCommande dans console et verifier si le page s'affiche correctement</t>
-  </si>
-  <si>
-    <t>ligne7-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">les informations de monCommande s'affichent sur ce page avec l'identifiant de la commande et sa  prix total </t>
-  </si>
-  <si>
-    <t>verifier le prix total si il est correct.</t>
-  </si>
-  <si>
-    <t>le page ne s'affiche pas correctement les informations de cette commande.</t>
+    <t xml:space="preserve">quand "monCommande" est vide, ou n'existe pas, ce page s'affiche en rappler les utilisateurs que il y a aucun commande en cours et retourner au page d'accueil pour commence le shopping. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cliquer "accueil" dans le head du page, et retourner à ce page  pour verifier si ce page s'affiche correctement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce page ne s'affiche pas correctement quand "monCommande" est vide ou n'existe pas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quand "monCommande" n'est pas vide, ce page doit s'afficher les informations concernant monCommande (l'identifiant de order et le prix total de la commande) , et le remercement au client. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifier si  le prix total dans le page précédant （mon panier) et le prix total de la commande dans cet page est identique , si l'identifiant de la commande se presente dans cet page.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  le prix total dans le page précédant （mon panier) et le prix total de la commande dans cet page n'est pas identique ,l'identifiant de la commande ne se presente pas  dans cet page.  </t>
+  </si>
+  <si>
+    <t>ligne 4-8</t>
+  </si>
+  <si>
+    <t>ligne 9-27</t>
+  </si>
+  <si>
+    <t>appendElementsCommandeVide</t>
+  </si>
+  <si>
+    <t>appendElementsCommandeNonVide</t>
   </si>
 </sst>
 </file>
@@ -277,7 +316,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -309,11 +348,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -330,11 +395,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39647C38-20D5-4909-AD52-687B958CFA3B}">
   <dimension ref="A1:AL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -668,14 +742,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="46.5" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="2" customFormat="1" ht="38.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -729,95 +803,91 @@
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
     </row>
-    <row r="3" spans="1:38" ht="47.25" customHeight="1">
+    <row r="3" spans="1:38" ht="105.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="82.5" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="67.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" ht="70.5" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" ht="45" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="46.5" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="60" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:38" ht="56.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>30</v>
@@ -829,177 +899,205 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="67.5" customHeight="1">
+    <row r="8" spans="1:38" ht="108.75" customHeight="1">
       <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="97.5" customHeight="1">
+    </row>
+    <row r="9" spans="1:38" ht="60" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>40</v>
+      <c r="C9" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="42" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="76.5" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" ht="45.75" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="60" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" ht="42" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="62.25" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" ht="93" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="54.75" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="4" t="s">
+    </row>
+    <row r="14" spans="1:38" ht="55.5" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" ht="41.25" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" ht="36.75" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="96" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" ht="24.95" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" ht="78.75" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="159" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="24.95" customHeight="1">
       <c r="A18" s="4"/>
@@ -1178,8 +1276,10 @@
       <c r="F39" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/plan de test.xlsx
+++ b/plan de test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projet-orinoco\orinoco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010F03F7-ABE3-4A54-9EE2-7BBE4A66EBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F7F190-401E-4DAD-B376-8AC758E73794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D112A754-ECC2-491E-A9E5-34250FA04644}"/>
   </bookViews>
@@ -308,15 +308,21 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -340,9 +346,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -355,21 +367,100 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -378,37 +469,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,557 +839,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39647C38-20D5-4909-AD52-687B958CFA3B}">
-  <dimension ref="A1:AL39"/>
+  <dimension ref="A1:AL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="58.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="27.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="58.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="46.5" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:38" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:38" s="2" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:38" s="1" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="105.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="82.5" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="67.5" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="60" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:38" ht="56.25" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="108.75" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="60" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="76.5" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="60" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="62.25" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="54.75" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="55.5" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="96" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="78.75" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="159" customHeight="1">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:6" ht="159" customHeight="1" thickBot="1">
+      <c r="A17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
+    <row r="18" spans="1:6" s="8" customFormat="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
